--- a/reports/revenue_weather_models_mlr_results.xlsx
+++ b/reports/revenue_weather_models_mlr_results.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="fare_per_mile_resid ~ rain_flag" sheetId="2" r:id="rId2"/>
-    <sheet name="driverpay_per_mile_resid ~ rain" sheetId="3" r:id="rId3"/>
+    <sheet name="avg_base_passenger_fare_resid ~" sheetId="2" r:id="rId2"/>
+    <sheet name="fare_per_mile_resid ~ rain_flag" sheetId="3" r:id="rId3"/>
     <sheet name="margin_per_mile_resid ~ rain_fl" sheetId="4" r:id="rId4"/>
+    <sheet name="driverpay_per_mile_resid ~ rain" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
   <si>
     <t>model_label</t>
   </si>
@@ -58,40 +59,133 @@
     <t>p_2</t>
   </si>
   <si>
+    <t>coef_3</t>
+  </si>
+  <si>
+    <t>var_3</t>
+  </si>
+  <si>
+    <t>sig_3</t>
+  </si>
+  <si>
+    <t>p_3</t>
+  </si>
+  <si>
+    <t>coef_4</t>
+  </si>
+  <si>
+    <t>var_4</t>
+  </si>
+  <si>
+    <t>sig_4</t>
+  </si>
+  <si>
+    <t>p_4</t>
+  </si>
+  <si>
+    <t>coef_5</t>
+  </si>
+  <si>
+    <t>var_5</t>
+  </si>
+  <si>
+    <t>sig_5</t>
+  </si>
+  <si>
+    <t>p_5</t>
+  </si>
+  <si>
+    <t>coef_6</t>
+  </si>
+  <si>
+    <t>var_6</t>
+  </si>
+  <si>
+    <t>sig_6</t>
+  </si>
+  <si>
+    <t>p_6</t>
+  </si>
+  <si>
+    <t>coef_7</t>
+  </si>
+  <si>
+    <t>var_7</t>
+  </si>
+  <si>
+    <t>sig_7</t>
+  </si>
+  <si>
+    <t>p_7</t>
+  </si>
+  <si>
+    <t>coef_8</t>
+  </si>
+  <si>
+    <t>var_8</t>
+  </si>
+  <si>
+    <t>sig_8</t>
+  </si>
+  <si>
+    <t>p_8</t>
+  </si>
+  <si>
+    <t>avg_base_passenger_fare_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
+  </si>
+  <si>
     <t>fare_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
   </si>
   <si>
+    <t>margin_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
+  </si>
+  <si>
     <t>driverpay_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
   </si>
   <si>
-    <t>margin_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
+    <t>avg_base_passenger_fare_resid</t>
   </si>
   <si>
     <t>fare_per_mile_resid</t>
   </si>
   <si>
+    <t>margin_per_mile_resid</t>
+  </si>
+  <si>
     <t>driverpay_per_mile_resid</t>
   </si>
   <si>
-    <t>margin_per_mile_resid</t>
+    <t>avg_trip_miles</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>avg_trip_time_min</t>
+  </si>
+  <si>
+    <t>demand_resid</t>
+  </si>
+  <si>
+    <t>driver_pay_pct_of_base_fare</t>
   </si>
   <si>
     <t>rain_flag_lag0</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>rain_flag_lag1</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t>.</t>
+    <t>heavy_rain_flag_lag0</t>
+  </si>
+  <si>
+    <t>precip_1h_mm_total</t>
+  </si>
+  <si>
+    <t>wind_chill_f</t>
   </si>
   <si>
     <t>param</t>
@@ -467,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,125 +607,1134 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C2">
-        <v>0.007997991506240476</v>
+        <v>0.5700277732421278</v>
       </c>
       <c r="D2">
-        <v>0.007649798453066126</v>
+        <v>0.5697258794546902</v>
       </c>
       <c r="E2">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="F2">
-        <v>0.09259409187247258</v>
+        <v>2.413322963547684</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I2">
-        <v>0.001672942116894102</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07168108244110713</v>
+        <v>-0.02707074504635856</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M2">
-        <v>0.01495521464723979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.001044524311421225</v>
+      </c>
+      <c r="N2">
+        <v>0.00920773381084258</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2">
+        <v>3.360981872780581E-100</v>
+      </c>
+      <c r="R2">
+        <v>-15.10301827160371</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2">
+        <v>3.151040359724815E-44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0.0158122491996826</v>
+        <v>0.3128271537038596</v>
       </c>
       <c r="D3">
-        <v>0.01546679895370151</v>
+        <v>0.3123446732079521</v>
       </c>
       <c r="E3">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="F3">
-        <v>0.1034661779963233</v>
+        <v>-0.07054833235873853</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I3">
-        <v>6.526883399790787E-09</v>
+        <v>2.763972244430455E-162</v>
       </c>
       <c r="J3">
-        <v>0.03333805561754459</v>
+        <v>0.005847306574090874</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>0.06118351301659702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>9.611821080164007E-21</v>
+      </c>
+      <c r="N3">
+        <v>0.0005977826922454803</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3">
+        <v>3.231492481229298E-75</v>
+      </c>
+      <c r="R3">
+        <v>-2.653500839497895</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3">
+        <v>2.60113504560505E-215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>0.000886784364880544</v>
+        <v>0.5849486296720854</v>
       </c>
       <c r="D4">
-        <v>0.0005360952755035786</v>
+        <v>0.5846572121749269</v>
       </c>
       <c r="E4">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="F4">
-        <v>-0.0108720861238507</v>
+        <v>-0.01361209660142907</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>0.5686875885369758</v>
+        <v>6.775114198601769E-27</v>
       </c>
       <c r="J4">
-        <v>0.0383430268235624</v>
+        <v>-0.006825383736215593</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>0.04444568699168884</v>
+        <v>1.722307101570335E-101</v>
+      </c>
+      <c r="N4">
+        <v>0.0002349890012747522</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4">
+        <v>1.963298150089567E-47</v>
+      </c>
+      <c r="R4">
+        <v>-3.442523621864735</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>0.5976090290864393</v>
+      </c>
+      <c r="D5">
+        <v>0.5957984960339597</v>
+      </c>
+      <c r="E5">
+        <v>1787</v>
+      </c>
+      <c r="F5">
+        <v>2.567281204183598</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>1.095614597131088E-308</v>
+      </c>
+      <c r="J5">
+        <v>-0.1813356063920056</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5">
+        <v>6.058288625263461E-23</v>
+      </c>
+      <c r="N5">
+        <v>0.01017486372989804</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5">
+        <v>4.558608831814345E-26</v>
+      </c>
+      <c r="R5">
+        <v>-13.30246450329206</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5">
+        <v>5.166765734714298E-14</v>
+      </c>
+      <c r="V5">
+        <v>1.924636689693848</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5">
+        <v>0.0008057928669036327</v>
+      </c>
+      <c r="Z5">
+        <v>-0.930796885552617</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5">
+        <v>0.7955216691602308</v>
+      </c>
+      <c r="AD5">
+        <v>0.2974253892846115</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5">
+        <v>0.4316024910641845</v>
+      </c>
+      <c r="AH5">
+        <v>-0.005395067678689072</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK5">
+        <v>0.6131247522578159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>0.3210077657739525</v>
+      </c>
+      <c r="D6">
+        <v>0.3179526826053313</v>
+      </c>
+      <c r="E6">
+        <v>1787</v>
+      </c>
+      <c r="F6">
+        <v>-0.05361111238026152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>1.45483106371878E-34</v>
+      </c>
+      <c r="J6">
+        <v>-0.007370480527641051</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6">
+        <v>1.662650768983388E-07</v>
+      </c>
+      <c r="N6">
+        <v>0.0005697668442642861</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6">
+        <v>1.346998547516964E-14</v>
+      </c>
+      <c r="R6">
+        <v>-2.616101958511456</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6">
+        <v>1.826850878707894E-75</v>
+      </c>
+      <c r="V6">
+        <v>0.152402554115701</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6">
+        <v>0.0006040271222392212</v>
+      </c>
+      <c r="Z6">
+        <v>-0.6078726742980095</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6">
+        <v>0.02878762954655125</v>
+      </c>
+      <c r="AD6">
+        <v>0.07723276611382776</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6">
+        <v>0.008348060303740305</v>
+      </c>
+      <c r="AH6">
+        <v>0.001293971855322156</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6">
+        <v>0.1170666019777796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0.6049553546031476</v>
+      </c>
+      <c r="D7">
+        <v>0.6031778758837016</v>
+      </c>
+      <c r="E7">
+        <v>1787</v>
+      </c>
+      <c r="F7">
+        <v>-0.006071572838217493</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>0.006359329001445982</v>
+      </c>
+      <c r="J7">
+        <v>-0.01330893776524718</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7">
+        <v>1.776605897839431E-68</v>
+      </c>
+      <c r="N7">
+        <v>0.0002590361458050593</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7">
+        <v>1.428234154658986E-11</v>
+      </c>
+      <c r="R7">
+        <v>-3.373879094620659</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7">
+        <v>1.976262583364986E-322</v>
+      </c>
+      <c r="V7">
+        <v>0.09494968269543617</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7">
+        <v>3.928542927132261E-05</v>
+      </c>
+      <c r="Z7">
+        <v>-0.3518117003335053</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7">
+        <v>0.0148424474521775</v>
+      </c>
+      <c r="AD7">
+        <v>0.0330772862006062</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7">
+        <v>0.02956140185377016</v>
+      </c>
+      <c r="AH7">
+        <v>0.001994053441914628</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK7">
+        <v>3.517625792160124E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0.3210077657739525</v>
+      </c>
+      <c r="D8">
+        <v>0.3179526826053313</v>
+      </c>
+      <c r="E8">
+        <v>1787</v>
+      </c>
+      <c r="F8">
+        <v>-0.05361111238026152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>1.45483106371878E-34</v>
+      </c>
+      <c r="J8">
+        <v>-0.007370480527641051</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8">
+        <v>1.662650768983388E-07</v>
+      </c>
+      <c r="N8">
+        <v>0.0005697668442642861</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8">
+        <v>1.346998547516964E-14</v>
+      </c>
+      <c r="R8">
+        <v>-2.616101958511456</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8">
+        <v>1.826850878707894E-75</v>
+      </c>
+      <c r="V8">
+        <v>0.152402554115701</v>
+      </c>
+      <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8">
+        <v>0.0006040271222392212</v>
+      </c>
+      <c r="Z8">
+        <v>-0.6078726742980095</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8">
+        <v>0.02878762954655125</v>
+      </c>
+      <c r="AD8">
+        <v>0.07723276611382776</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8">
+        <v>0.008348060303740305</v>
+      </c>
+      <c r="AH8">
+        <v>0.001293971855322156</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8">
+        <v>0.1170666019777796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>0.2147035199372997</v>
+      </c>
+      <c r="D9">
+        <v>0.2111701274510783</v>
+      </c>
+      <c r="E9">
+        <v>1787</v>
+      </c>
+      <c r="F9">
+        <v>-0.04753953954204398</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>8.799323447970588E-69</v>
+      </c>
+      <c r="J9">
+        <v>0.005938457237606129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9">
+        <v>4.142572278114807E-12</v>
+      </c>
+      <c r="N9">
+        <v>0.0003107306984592267</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9">
+        <v>4.036892201073927E-12</v>
+      </c>
+      <c r="R9">
+        <v>0.7577771361092032</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9">
+        <v>8.547981923086256E-20</v>
+      </c>
+      <c r="V9">
+        <v>0.05745287142026485</v>
+      </c>
+      <c r="W9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9">
+        <v>0.03284352412458014</v>
+      </c>
+      <c r="Z9">
+        <v>-0.2560609739645046</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC9">
+        <v>0.12875029029489</v>
+      </c>
+      <c r="AD9">
+        <v>0.04415547991322162</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9">
+        <v>0.01289566544940651</v>
+      </c>
+      <c r="AH9">
+        <v>-0.0007000815865924753</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK9">
+        <v>0.1620773637861845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>0.6049553546031476</v>
+      </c>
+      <c r="D10">
+        <v>0.6031778758837016</v>
+      </c>
+      <c r="E10">
+        <v>1787</v>
+      </c>
+      <c r="F10">
+        <v>-0.006071572838217493</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>0.006359329001445982</v>
+      </c>
+      <c r="J10">
+        <v>-0.01330893776524718</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <v>1.776605897839431E-68</v>
+      </c>
+      <c r="N10">
+        <v>0.0002590361458050593</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10">
+        <v>1.428234154658986E-11</v>
+      </c>
+      <c r="R10">
+        <v>-3.373879094620659</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10">
+        <v>1.976262583364986E-322</v>
+      </c>
+      <c r="V10">
+        <v>0.09494968269543617</v>
+      </c>
+      <c r="W10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10">
+        <v>3.928542927132261E-05</v>
+      </c>
+      <c r="Z10">
+        <v>-0.3518117003335053</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC10">
+        <v>0.0148424474521775</v>
+      </c>
+      <c r="AD10">
+        <v>0.0330772862006062</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG10">
+        <v>0.02956140185377016</v>
+      </c>
+      <c r="AH10">
+        <v>0.001994053441914628</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK10">
+        <v>3.517625792160124E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>0.1772021242589028</v>
+      </c>
+      <c r="D11">
+        <v>0.1739645834324904</v>
+      </c>
+      <c r="E11">
+        <v>1787</v>
+      </c>
+      <c r="F11">
+        <v>-0.0424682563223264</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>3.700699043234285E-56</v>
+      </c>
+      <c r="J11">
+        <v>0.003810330728468005</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>5.792769013199906E-06</v>
+      </c>
+      <c r="N11">
+        <v>0.0003296310763475154</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11">
+        <v>6.286199376622963E-13</v>
+      </c>
+      <c r="R11">
+        <v>0.06768874976843403</v>
+      </c>
+      <c r="S11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11">
+        <v>0.01395205599790157</v>
+      </c>
+      <c r="V11">
+        <v>-0.3573401747519762</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11">
+        <v>0.03794741408251676</v>
+      </c>
+      <c r="Z11">
+        <v>0.05482291769034758</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11">
+        <v>0.00250910110558321</v>
+      </c>
+      <c r="AD11">
+        <v>-0.0007618797976859061</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG11">
+        <v>0.137026815798597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>0.2147035199372997</v>
+      </c>
+      <c r="D12">
+        <v>0.2111701274510783</v>
+      </c>
+      <c r="E12">
+        <v>1787</v>
+      </c>
+      <c r="F12">
+        <v>-0.04753953954204407</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>8.799323447972345E-69</v>
+      </c>
+      <c r="J12">
+        <v>0.005938457237606124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <v>4.142572278114777E-12</v>
+      </c>
+      <c r="N12">
+        <v>0.0003107306984592273</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12">
+        <v>4.036892201073707E-12</v>
+      </c>
+      <c r="R12">
+        <v>0.05745287142026485</v>
+      </c>
+      <c r="S12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12">
+        <v>0.0328435241245802</v>
+      </c>
+      <c r="V12">
+        <v>-0.2560609739645043</v>
+      </c>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y12">
+        <v>0.1287502902948907</v>
+      </c>
+      <c r="Z12">
+        <v>0.04415547991322162</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12">
+        <v>0.01289566544940665</v>
+      </c>
+      <c r="AD12">
+        <v>-0.0007000815865924622</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG12">
+        <v>0.1620773637861929</v>
+      </c>
+      <c r="AH12">
+        <v>0.7577771361092038</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12">
+        <v>8.547981923086256E-20</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +1744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -649,70 +1752,172 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>-0.01124551962909278</v>
+        <v>-13.97698953761943</v>
       </c>
       <c r="C2">
-        <v>0.005787522401447564</v>
+        <v>1.425353894267631</v>
       </c>
       <c r="D2">
-        <v>-1.94306282534303</v>
+        <v>-9.805978426712771</v>
       </c>
       <c r="E2">
-        <v>0.05205775503629863</v>
+        <v>3.821256767324627E-22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0.09259409187247258</v>
+        <v>2.567281204183598</v>
       </c>
       <c r="C3">
-        <v>0.02944747878992273</v>
+        <v>0.05532308107317038</v>
       </c>
       <c r="D3">
-        <v>3.144380968334694</v>
+        <v>46.40524631641734</v>
       </c>
       <c r="E3">
-        <v>0.001672942116894102</v>
+        <v>1.095614597131088E-308</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>0.07168108244110713</v>
+        <v>-0.1813356063920056</v>
       </c>
       <c r="C4">
-        <v>0.0294474787899227</v>
+        <v>0.01813306710261784</v>
       </c>
       <c r="D4">
-        <v>2.434201004183669</v>
+        <v>-10.00027217490561</v>
       </c>
       <c r="E4">
-        <v>0.01495521464723979</v>
+        <v>6.058288625263461E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.01017486372989804</v>
+      </c>
+      <c r="C5">
+        <v>0.0009483089519546409</v>
+      </c>
+      <c r="D5">
+        <v>10.72948189398166</v>
+      </c>
+      <c r="E5">
+        <v>4.558608831814345E-26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>-13.30246450329206</v>
+      </c>
+      <c r="C6">
+        <v>1.752839823628648</v>
+      </c>
+      <c r="D6">
+        <v>-7.589093038606298</v>
+      </c>
+      <c r="E6">
+        <v>5.166765734714298E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>1.924636689693848</v>
+      </c>
+      <c r="C7">
+        <v>0.5733943375550855</v>
+      </c>
+      <c r="D7">
+        <v>3.356567310902245</v>
+      </c>
+      <c r="E7">
+        <v>0.0008057928669036327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>-0.930796885552617</v>
+      </c>
+      <c r="C8">
+        <v>3.591230131116732</v>
+      </c>
+      <c r="D8">
+        <v>-0.2591860870980094</v>
+      </c>
+      <c r="E8">
+        <v>0.7955216691602308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>0.2974253892846115</v>
+      </c>
+      <c r="C9">
+        <v>0.3781000620056044</v>
+      </c>
+      <c r="D9">
+        <v>0.7866314216055402</v>
+      </c>
+      <c r="E9">
+        <v>0.4316024910641845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>-0.005395067678689072</v>
+      </c>
+      <c r="C10">
+        <v>0.01066835796645879</v>
+      </c>
+      <c r="D10">
+        <v>-0.5057074102360563</v>
+      </c>
+      <c r="E10">
+        <v>0.6131247522578159</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,70 +1935,172 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>-0.009329690607364287</v>
+        <v>2.650347470735377</v>
       </c>
       <c r="C2">
-        <v>0.003499084377524309</v>
+        <v>0.1102586913952973</v>
       </c>
       <c r="D2">
-        <v>-2.666323415145902</v>
+        <v>24.03753787747582</v>
       </c>
       <c r="E2">
-        <v>0.007690243208886898</v>
+        <v>8.691499440649033E-111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>0.1034661779963233</v>
+        <v>-0.05361111238026152</v>
       </c>
       <c r="C3">
-        <v>0.01780368279274825</v>
+        <v>0.004279534049484537</v>
       </c>
       <c r="D3">
-        <v>5.811504237677546</v>
+        <v>-12.52732464804641</v>
       </c>
       <c r="E3">
-        <v>6.526883399790787E-09</v>
+        <v>1.45483106371878E-34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>0.03333805561754459</v>
+        <v>-0.007370480527641051</v>
       </c>
       <c r="C4">
-        <v>0.01780368279274824</v>
+        <v>0.001402689014818349</v>
       </c>
       <c r="D4">
-        <v>1.872537047847414</v>
+        <v>-5.254536429513242</v>
       </c>
       <c r="E4">
-        <v>0.06118351301659702</v>
+        <v>1.662650768983388E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.0005697668442642861</v>
+      </c>
+      <c r="C5">
+        <v>7.33567323185298E-05</v>
+      </c>
+      <c r="D5">
+        <v>7.767069582519611</v>
+      </c>
+      <c r="E5">
+        <v>1.346998547516964E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>-2.616101958511456</v>
+      </c>
+      <c r="C6">
+        <v>0.1355914667621276</v>
+      </c>
+      <c r="D6">
+        <v>-19.29400146619084</v>
+      </c>
+      <c r="E6">
+        <v>1.826850878707894E-75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.152402554115701</v>
+      </c>
+      <c r="C7">
+        <v>0.04435509634944481</v>
+      </c>
+      <c r="D7">
+        <v>3.435964898261541</v>
+      </c>
+      <c r="E7">
+        <v>0.0006040271222392212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>-0.6078726742980095</v>
+      </c>
+      <c r="C8">
+        <v>0.2778007176665032</v>
+      </c>
+      <c r="D8">
+        <v>-2.188160921267864</v>
+      </c>
+      <c r="E8">
+        <v>0.02878762954655125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>0.07723276611382776</v>
+      </c>
+      <c r="C9">
+        <v>0.0292480472540043</v>
+      </c>
+      <c r="D9">
+        <v>2.640612737086369</v>
+      </c>
+      <c r="E9">
+        <v>0.008348060303740305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>0.001293971855322156</v>
+      </c>
+      <c r="C10">
+        <v>0.0008252541305348816</v>
+      </c>
+      <c r="D10">
+        <v>1.567967741625817</v>
+      </c>
+      <c r="E10">
+        <v>0.1170666019777796</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -811,70 +2118,355 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>-0.001915829021728514</v>
+        <v>2.822293117560656</v>
       </c>
       <c r="C2">
-        <v>0.003748594474409358</v>
+        <v>0.0572602199997627</v>
       </c>
       <c r="D2">
-        <v>-0.511079295135113</v>
+        <v>49.28889755527227</v>
       </c>
       <c r="E2">
-        <v>0.6093153349248892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>-0.0108720861238507</v>
+        <v>-0.006071572838217493</v>
       </c>
       <c r="C3">
-        <v>0.01907321451569352</v>
+        <v>0.002222473875473652</v>
       </c>
       <c r="D3">
-        <v>-0.5700185521903035</v>
+        <v>-2.731898406195449</v>
       </c>
       <c r="E3">
-        <v>0.5686875885369758</v>
+        <v>0.006359329001445982</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>0.0383430268235624</v>
+        <v>-0.01330893776524718</v>
       </c>
       <c r="C4">
-        <v>0.0190732145156935</v>
+        <v>0.0007284530640019432</v>
       </c>
       <c r="D4">
-        <v>2.010307533216996</v>
+        <v>-18.2701376697232</v>
       </c>
       <c r="E4">
-        <v>0.04444568699168884</v>
+        <v>1.776605897839431E-68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.0002590361458050593</v>
+      </c>
+      <c r="C5">
+        <v>3.809606823613972E-05</v>
+      </c>
+      <c r="D5">
+        <v>6.799550657023589</v>
+      </c>
+      <c r="E5">
+        <v>1.428234154658986E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>-3.373879094620659</v>
+      </c>
+      <c r="C6">
+        <v>0.07041619230773022</v>
+      </c>
+      <c r="D6">
+        <v>-47.91339866654901</v>
+      </c>
+      <c r="E6">
+        <v>1.976262583364986E-322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.09494968269543617</v>
+      </c>
+      <c r="C7">
+        <v>0.02303476073350355</v>
+      </c>
+      <c r="D7">
+        <v>4.122017319560604</v>
+      </c>
+      <c r="E7">
+        <v>3.928542927132261E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>-0.3518117003335053</v>
+      </c>
+      <c r="C8">
+        <v>0.1442691728731544</v>
+      </c>
+      <c r="D8">
+        <v>-2.43857848026084</v>
+      </c>
+      <c r="E8">
+        <v>0.0148424474521775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>0.0330772862006062</v>
+      </c>
+      <c r="C9">
+        <v>0.01518927532273589</v>
+      </c>
+      <c r="D9">
+        <v>2.177673753210257</v>
+      </c>
+      <c r="E9">
+        <v>0.02956140185377016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>0.001994053441914628</v>
+      </c>
+      <c r="C10">
+        <v>0.0004285760376089105</v>
+      </c>
+      <c r="D10">
+        <v>4.652741326929403</v>
+      </c>
+      <c r="E10">
+        <v>3.517625792160124E-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>-0.1719456468252796</v>
+      </c>
+      <c r="C2">
+        <v>0.06687275323979933</v>
+      </c>
+      <c r="D2">
+        <v>-2.57123624338748</v>
+      </c>
+      <c r="E2">
+        <v>0.01021427230030648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>-0.04753953954204407</v>
+      </c>
+      <c r="C3">
+        <v>0.002595570660697186</v>
+      </c>
+      <c r="D3">
+        <v>-18.31564066503767</v>
+      </c>
+      <c r="E3">
+        <v>8.799323447972345E-69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.005938457237606124</v>
+      </c>
+      <c r="C4">
+        <v>0.0008507417889064955</v>
+      </c>
+      <c r="D4">
+        <v>6.980328596810961</v>
+      </c>
+      <c r="E4">
+        <v>4.142572278114777E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.0003107306984592273</v>
+      </c>
+      <c r="C5">
+        <v>4.449142826507629E-05</v>
+      </c>
+      <c r="D5">
+        <v>6.984057616849682</v>
+      </c>
+      <c r="E5">
+        <v>4.036892201073707E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0.05745287142026485</v>
+      </c>
+      <c r="C6">
+        <v>0.02690171065489768</v>
+      </c>
+      <c r="D6">
+        <v>2.135658663394518</v>
+      </c>
+      <c r="E6">
+        <v>0.0328435241245802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>-0.2560609739645043</v>
+      </c>
+      <c r="C7">
+        <v>0.1684882942764871</v>
+      </c>
+      <c r="D7">
+        <v>-1.519755274774825</v>
+      </c>
+      <c r="E7">
+        <v>0.1287502902948907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>0.04415547991322162</v>
+      </c>
+      <c r="C8">
+        <v>0.01773916796954152</v>
+      </c>
+      <c r="D8">
+        <v>2.489151689021571</v>
+      </c>
+      <c r="E8">
+        <v>0.01289566544940665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>-0.0007000815865924622</v>
+      </c>
+      <c r="C9">
+        <v>0.0005005230438798597</v>
+      </c>
+      <c r="D9">
+        <v>-1.398700010224709</v>
+      </c>
+      <c r="E9">
+        <v>0.1620773637861929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.7577771361092038</v>
+      </c>
+      <c r="C10">
+        <v>0.08223727838105781</v>
+      </c>
+      <c r="D10">
+        <v>9.214521091006182</v>
+      </c>
+      <c r="E10">
+        <v>8.547981923086256E-20</v>
       </c>
     </row>
   </sheetData>

--- a/reports/revenue_weather_models_mlr_results.xlsx
+++ b/reports/revenue_weather_models_mlr_results.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="avg_base_passenger_fare_resid ~" sheetId="2" r:id="rId2"/>
-    <sheet name="fare_per_mile_resid ~ rain_flag" sheetId="3" r:id="rId3"/>
-    <sheet name="margin_per_mile_resid ~ rain_fl" sheetId="4" r:id="rId4"/>
-    <sheet name="driverpay_per_mile_resid ~ rain" sheetId="5" r:id="rId5"/>
+    <sheet name="fare_per_mile_resid ~ avg_trip_" sheetId="3" r:id="rId3"/>
+    <sheet name="margin_per_mile_resid ~ avg_tri" sheetId="4" r:id="rId4"/>
+    <sheet name="driverpay_per_mile_resid ~ avg_" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="67">
   <si>
     <t>model_label</t>
   </si>
@@ -131,16 +131,31 @@
     <t>p_8</t>
   </si>
   <si>
-    <t>avg_base_passenger_fare_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
-  </si>
-  <si>
-    <t>fare_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
-  </si>
-  <si>
-    <t>margin_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
-  </si>
-  <si>
-    <t>driverpay_per_mile_resid ~ rain_flag_lag0 + rain_flag_lag1</t>
+    <t>avg_base_passenger_fare_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare</t>
+  </si>
+  <si>
+    <t>fare_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare</t>
+  </si>
+  <si>
+    <t>margin_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare</t>
+  </si>
+  <si>
+    <t>avg_base_passenger_fare_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>fare_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>margin_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f + driver_pay_pct_of_base_fare</t>
   </si>
   <si>
     <t>avg_base_passenger_fare_resid</t>
@@ -685,7 +700,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0.5700277732421278</v>
@@ -700,10 +715,10 @@
         <v>2.413322963547684</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -712,10 +727,10 @@
         <v>-0.02707074504635856</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <v>0.001044524311421225</v>
@@ -724,10 +739,10 @@
         <v>0.00920773381084258</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q2">
         <v>3.360981872780581E-100</v>
@@ -736,10 +751,10 @@
         <v>-15.10301827160371</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U2">
         <v>3.151040359724815E-44</v>
@@ -750,7 +765,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0.3128271537038596</v>
@@ -765,10 +780,10 @@
         <v>-0.07054833235873853</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>2.763972244430455E-162</v>
@@ -777,10 +792,10 @@
         <v>0.005847306574090874</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M3">
         <v>9.611821080164007E-21</v>
@@ -789,10 +804,10 @@
         <v>0.0005977826922454803</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q3">
         <v>3.231492481229298E-75</v>
@@ -801,10 +816,10 @@
         <v>-2.653500839497895</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U3">
         <v>2.60113504560505E-215</v>
@@ -815,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0.5849486296720854</v>
@@ -830,10 +845,10 @@
         <v>-0.01361209660142907</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <v>6.775114198601769E-27</v>
@@ -842,10 +857,10 @@
         <v>-0.006825383736215593</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M4">
         <v>1.722307101570335E-101</v>
@@ -854,10 +869,10 @@
         <v>0.0002349890012747522</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q4">
         <v>1.963298150089567E-47</v>
@@ -866,10 +881,10 @@
         <v>-3.442523621864735</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -877,10 +892,10 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>0.5976090290864393</v>
@@ -895,10 +910,10 @@
         <v>2.567281204183598</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I5">
         <v>1.095614597131088E-308</v>
@@ -907,10 +922,10 @@
         <v>-0.1813356063920056</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M5">
         <v>6.058288625263461E-23</v>
@@ -919,10 +934,10 @@
         <v>0.01017486372989804</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q5">
         <v>4.558608831814345E-26</v>
@@ -931,10 +946,10 @@
         <v>-13.30246450329206</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U5">
         <v>5.166765734714298E-14</v>
@@ -943,10 +958,10 @@
         <v>1.924636689693848</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Y5">
         <v>0.0008057928669036327</v>
@@ -955,7 +970,7 @@
         <v>-0.930796885552617</v>
       </c>
       <c r="AA5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AC5">
         <v>0.7955216691602308</v>
@@ -964,7 +979,7 @@
         <v>0.2974253892846115</v>
       </c>
       <c r="AE5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AG5">
         <v>0.4316024910641845</v>
@@ -973,7 +988,7 @@
         <v>-0.005395067678689072</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK5">
         <v>0.6131247522578159</v>
@@ -981,10 +996,10 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0.3210077657739525</v>
@@ -999,10 +1014,10 @@
         <v>-0.05361111238026152</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I6">
         <v>1.45483106371878E-34</v>
@@ -1011,10 +1026,10 @@
         <v>-0.007370480527641051</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M6">
         <v>1.662650768983388E-07</v>
@@ -1023,10 +1038,10 @@
         <v>0.0005697668442642861</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6">
         <v>1.346998547516964E-14</v>
@@ -1035,10 +1050,10 @@
         <v>-2.616101958511456</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U6">
         <v>1.826850878707894E-75</v>
@@ -1047,10 +1062,10 @@
         <v>0.152402554115701</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Y6">
         <v>0.0006040271222392212</v>
@@ -1059,10 +1074,10 @@
         <v>-0.6078726742980095</v>
       </c>
       <c r="AA6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AB6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AC6">
         <v>0.02878762954655125</v>
@@ -1071,10 +1086,10 @@
         <v>0.07723276611382776</v>
       </c>
       <c r="AE6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG6">
         <v>0.008348060303740305</v>
@@ -1083,7 +1098,7 @@
         <v>0.001293971855322156</v>
       </c>
       <c r="AI6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK6">
         <v>0.1170666019777796</v>
@@ -1091,10 +1106,10 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0.6049553546031476</v>
@@ -1109,10 +1124,10 @@
         <v>-0.006071572838217493</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I7">
         <v>0.006359329001445982</v>
@@ -1121,10 +1136,10 @@
         <v>-0.01330893776524718</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M7">
         <v>1.776605897839431E-68</v>
@@ -1133,10 +1148,10 @@
         <v>0.0002590361458050593</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>1.428234154658986E-11</v>
@@ -1145,10 +1160,10 @@
         <v>-3.373879094620659</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U7">
         <v>1.976262583364986E-322</v>
@@ -1157,10 +1172,10 @@
         <v>0.09494968269543617</v>
       </c>
       <c r="W7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Y7">
         <v>3.928542927132261E-05</v>
@@ -1169,10 +1184,10 @@
         <v>-0.3518117003335053</v>
       </c>
       <c r="AA7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AB7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AC7">
         <v>0.0148424474521775</v>
@@ -1181,10 +1196,10 @@
         <v>0.0330772862006062</v>
       </c>
       <c r="AE7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG7">
         <v>0.02956140185377016</v>
@@ -1193,10 +1208,10 @@
         <v>0.001994053441914628</v>
       </c>
       <c r="AI7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AK7">
         <v>3.517625792160124E-06</v>
@@ -1204,10 +1219,10 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0.3210077657739525</v>
@@ -1222,10 +1237,10 @@
         <v>-0.05361111238026152</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I8">
         <v>1.45483106371878E-34</v>
@@ -1234,10 +1249,10 @@
         <v>-0.007370480527641051</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M8">
         <v>1.662650768983388E-07</v>
@@ -1246,10 +1261,10 @@
         <v>0.0005697668442642861</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1.346998547516964E-14</v>
@@ -1258,10 +1273,10 @@
         <v>-2.616101958511456</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U8">
         <v>1.826850878707894E-75</v>
@@ -1270,10 +1285,10 @@
         <v>0.152402554115701</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Y8">
         <v>0.0006040271222392212</v>
@@ -1282,10 +1297,10 @@
         <v>-0.6078726742980095</v>
       </c>
       <c r="AA8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AB8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AC8">
         <v>0.02878762954655125</v>
@@ -1294,10 +1309,10 @@
         <v>0.07723276611382776</v>
       </c>
       <c r="AE8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG8">
         <v>0.008348060303740305</v>
@@ -1306,7 +1321,7 @@
         <v>0.001293971855322156</v>
       </c>
       <c r="AI8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK8">
         <v>0.1170666019777796</v>
@@ -1314,10 +1329,10 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0.2147035199372997</v>
@@ -1332,10 +1347,10 @@
         <v>-0.04753953954204398</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I9">
         <v>8.799323447970588E-69</v>
@@ -1344,10 +1359,10 @@
         <v>0.005938457237606129</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M9">
         <v>4.142572278114807E-12</v>
@@ -1356,10 +1371,10 @@
         <v>0.0003107306984592267</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>4.036892201073927E-12</v>
@@ -1368,10 +1383,10 @@
         <v>0.7577771361092032</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U9">
         <v>8.547981923086256E-20</v>
@@ -1380,10 +1395,10 @@
         <v>0.05745287142026485</v>
       </c>
       <c r="W9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Y9">
         <v>0.03284352412458014</v>
@@ -1392,7 +1407,7 @@
         <v>-0.2560609739645046</v>
       </c>
       <c r="AA9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AC9">
         <v>0.12875029029489</v>
@@ -1401,10 +1416,10 @@
         <v>0.04415547991322162</v>
       </c>
       <c r="AE9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG9">
         <v>0.01289566544940651</v>
@@ -1413,7 +1428,7 @@
         <v>-0.0007000815865924753</v>
       </c>
       <c r="AI9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK9">
         <v>0.1620773637861845</v>
@@ -1421,10 +1436,10 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>0.6049553546031476</v>
@@ -1439,10 +1454,10 @@
         <v>-0.006071572838217493</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I10">
         <v>0.006359329001445982</v>
@@ -1451,10 +1466,10 @@
         <v>-0.01330893776524718</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M10">
         <v>1.776605897839431E-68</v>
@@ -1463,10 +1478,10 @@
         <v>0.0002590361458050593</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1.428234154658986E-11</v>
@@ -1475,10 +1490,10 @@
         <v>-3.373879094620659</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U10">
         <v>1.976262583364986E-322</v>
@@ -1487,10 +1502,10 @@
         <v>0.09494968269543617</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="X10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Y10">
         <v>3.928542927132261E-05</v>
@@ -1499,10 +1514,10 @@
         <v>-0.3518117003335053</v>
       </c>
       <c r="AA10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AB10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AC10">
         <v>0.0148424474521775</v>
@@ -1511,10 +1526,10 @@
         <v>0.0330772862006062</v>
       </c>
       <c r="AE10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG10">
         <v>0.02956140185377016</v>
@@ -1523,10 +1538,10 @@
         <v>0.001994053441914628</v>
       </c>
       <c r="AI10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AK10">
         <v>3.517625792160124E-06</v>
@@ -1534,10 +1549,10 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0.1772021242589028</v>
@@ -1552,10 +1567,10 @@
         <v>-0.0424682563223264</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <v>3.700699043234285E-56</v>
@@ -1564,10 +1579,10 @@
         <v>0.003810330728468005</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M11">
         <v>5.792769013199906E-06</v>
@@ -1576,10 +1591,10 @@
         <v>0.0003296310763475154</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>6.286199376622963E-13</v>
@@ -1588,10 +1603,10 @@
         <v>0.06768874976843403</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U11">
         <v>0.01395205599790157</v>
@@ -1600,10 +1615,10 @@
         <v>-0.3573401747519762</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Y11">
         <v>0.03794741408251676</v>
@@ -1612,10 +1627,10 @@
         <v>0.05482291769034758</v>
       </c>
       <c r="AA11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AB11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AC11">
         <v>0.00250910110558321</v>
@@ -1624,7 +1639,7 @@
         <v>-0.0007618797976859061</v>
       </c>
       <c r="AE11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG11">
         <v>0.137026815798597</v>
@@ -1632,10 +1647,10 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.2147035199372997</v>
@@ -1650,10 +1665,10 @@
         <v>-0.04753953954204407</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I12">
         <v>8.799323447972345E-69</v>
@@ -1662,10 +1677,10 @@
         <v>0.005938457237606124</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M12">
         <v>4.142572278114777E-12</v>
@@ -1674,10 +1689,10 @@
         <v>0.0003107306984592273</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>4.036892201073707E-12</v>
@@ -1686,10 +1701,10 @@
         <v>0.05745287142026485</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U12">
         <v>0.0328435241245802</v>
@@ -1698,7 +1713,7 @@
         <v>-0.2560609739645043</v>
       </c>
       <c r="W12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Y12">
         <v>0.1287502902948907</v>
@@ -1707,10 +1722,10 @@
         <v>0.04415547991322162</v>
       </c>
       <c r="AA12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AB12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AC12">
         <v>0.01289566544940665</v>
@@ -1719,7 +1734,7 @@
         <v>-0.0007000815865924622</v>
       </c>
       <c r="AE12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG12">
         <v>0.1620773637861929</v>
@@ -1728,10 +1743,10 @@
         <v>0.7577771361092038</v>
       </c>
       <c r="AI12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AK12">
         <v>8.547981923086256E-20</v>
@@ -1752,24 +1767,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>-13.97698953761943</v>
@@ -1786,7 +1801,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2.567281204183598</v>
@@ -1803,7 +1818,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>-0.1813356063920056</v>
@@ -1820,7 +1835,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0.01017486372989804</v>
@@ -1837,7 +1852,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>-13.30246450329206</v>
@@ -1854,7 +1869,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1.924636689693848</v>
@@ -1871,7 +1886,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>-0.930796885552617</v>
@@ -1888,7 +1903,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.2974253892846115</v>
@@ -1905,7 +1920,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>-0.005395067678689072</v>
@@ -1935,24 +1950,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>2.650347470735377</v>
@@ -1969,7 +1984,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>-0.05361111238026152</v>
@@ -1986,7 +2001,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>-0.007370480527641051</v>
@@ -2003,7 +2018,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0.0005697668442642861</v>
@@ -2020,7 +2035,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>-2.616101958511456</v>
@@ -2037,7 +2052,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0.152402554115701</v>
@@ -2054,7 +2069,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>-0.6078726742980095</v>
@@ -2071,7 +2086,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.07723276611382776</v>
@@ -2088,7 +2103,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.001293971855322156</v>
@@ -2118,24 +2133,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>2.822293117560656</v>
@@ -2152,7 +2167,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>-0.006071572838217493</v>
@@ -2169,7 +2184,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>-0.01330893776524718</v>
@@ -2186,7 +2201,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0.0002590361458050593</v>
@@ -2203,7 +2218,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>-3.373879094620659</v>
@@ -2220,7 +2235,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0.09494968269543617</v>
@@ -2237,7 +2252,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>-0.3518117003335053</v>
@@ -2254,7 +2269,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0.0330772862006062</v>
@@ -2271,7 +2286,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>0.001994053441914628</v>
@@ -2301,24 +2316,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>-0.1719456468252796</v>
@@ -2335,7 +2350,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>-0.04753953954204407</v>
@@ -2352,7 +2367,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>0.005938457237606124</v>
@@ -2369,7 +2384,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0.0003107306984592273</v>
@@ -2386,7 +2401,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0.05745287142026485</v>
@@ -2403,7 +2418,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>-0.2560609739645043</v>
@@ -2420,7 +2435,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>0.04415547991322162</v>
@@ -2437,7 +2452,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>-0.0007000815865924622</v>
@@ -2454,7 +2469,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0.7577771361092038</v>

--- a/reports/revenue_weather_models_mlr_results.xlsx
+++ b/reports/revenue_weather_models_mlr_results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="68">
   <si>
     <t>model_label</t>
   </si>
@@ -131,31 +131,31 @@
     <t>p_8</t>
   </si>
   <si>
-    <t>avg_base_passenger_fare_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare</t>
-  </si>
-  <si>
-    <t>fare_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare</t>
-  </si>
-  <si>
-    <t>margin_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare</t>
-  </si>
-  <si>
-    <t>avg_base_passenger_fare_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
-  </si>
-  <si>
-    <t>fare_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
-  </si>
-  <si>
-    <t>margin_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
-  </si>
-  <si>
-    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
-  </si>
-  <si>
-    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
-  </si>
-  <si>
-    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f + driver_pay_pct_of_base_fare</t>
+    <t>avg_base_passenger_fare_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare</t>
+  </si>
+  <si>
+    <t>fare_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare</t>
+  </si>
+  <si>
+    <t>margin_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare</t>
+  </si>
+  <si>
+    <t>avg_base_passenger_fare_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>fare_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>margin_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + driver_pay_pct_of_base_fare + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f</t>
+  </si>
+  <si>
+    <t>driverpay_per_mile_resid ~ avg_trip_miles + avg_trip_time_min + demand_resid_lag1 + rain_flag_lag0 + heavy_rain_flag_lag0 + precip_1h_mm_total + wind_chill_f + driver_pay_pct_of_base_fare</t>
   </si>
   <si>
     <t>avg_base_passenger_fare_resid</t>
@@ -176,13 +176,13 @@
     <t>***</t>
   </si>
   <si>
+    <t>avg_trip_time_min</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
-    <t>avg_trip_time_min</t>
-  </si>
-  <si>
-    <t>demand_resid</t>
+    <t>demand_resid_lag1</t>
   </si>
   <si>
     <t>driver_pay_pct_of_base_fare</t>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>heavy_rain_flag_lag0</t>
@@ -703,16 +706,16 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>0.5700277732421278</v>
+        <v>0.5523198464326917</v>
       </c>
       <c r="D2">
-        <v>0.5697258794546902</v>
+        <v>0.5520054643023776</v>
       </c>
       <c r="E2">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F2">
-        <v>2.413322963547684</v>
+        <v>2.414370752952621</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -724,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.02707074504635856</v>
+        <v>-0.02256071399296579</v>
       </c>
       <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2">
-        <v>0.001044524311421225</v>
+        <v>0.007383313664265148</v>
       </c>
       <c r="N2">
-        <v>0.00920773381084258</v>
+        <v>0.00648225117113059</v>
       </c>
       <c r="O2" t="s">
         <v>54</v>
@@ -745,10 +748,10 @@
         <v>51</v>
       </c>
       <c r="Q2">
-        <v>3.360981872780581E-100</v>
+        <v>1.149515322256108E-49</v>
       </c>
       <c r="R2">
-        <v>-15.10301827160371</v>
+        <v>-15.43570412791068</v>
       </c>
       <c r="S2" t="s">
         <v>55</v>
@@ -757,7 +760,7 @@
         <v>51</v>
       </c>
       <c r="U2">
-        <v>3.151040359724815E-44</v>
+        <v>2.293184906651257E-44</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -768,16 +771,16 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>0.3128271537038596</v>
+        <v>0.2871382485127099</v>
       </c>
       <c r="D3">
-        <v>0.3123446732079521</v>
+        <v>0.2866376433501486</v>
       </c>
       <c r="E3">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F3">
-        <v>-0.07054833235873853</v>
+        <v>-0.07024521433496744</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -786,22 +789,22 @@
         <v>51</v>
       </c>
       <c r="I3">
-        <v>2.763972244430455E-162</v>
+        <v>1.928797147044533E-155</v>
       </c>
       <c r="J3">
-        <v>0.005847306574090874</v>
+        <v>0.006156268938935619</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
       <c r="M3">
-        <v>9.611821080164007E-21</v>
+        <v>4.490817047166866E-22</v>
       </c>
       <c r="N3">
-        <v>0.0005977826922454803</v>
+        <v>0.0003713405584793534</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
@@ -810,10 +813,10 @@
         <v>51</v>
       </c>
       <c r="Q3">
-        <v>3.231492481229298E-75</v>
+        <v>1.270139311717818E-29</v>
       </c>
       <c r="R3">
-        <v>-2.653500839497895</v>
+        <v>-2.679855151595597</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -822,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="U3">
-        <v>2.60113504560505E-215</v>
+        <v>3.801349475545635E-212</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -833,16 +836,16 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>0.5849486296720854</v>
+        <v>0.5751478332384878</v>
       </c>
       <c r="D4">
-        <v>0.5846572121749269</v>
+        <v>0.5748494819977845</v>
       </c>
       <c r="E4">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F4">
-        <v>-0.01361209660142907</v>
+        <v>-0.01348173470113232</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -851,22 +854,22 @@
         <v>51</v>
       </c>
       <c r="I4">
-        <v>6.775114198601769E-27</v>
+        <v>8.166046700931465E-26</v>
       </c>
       <c r="J4">
-        <v>-0.006825383736215593</v>
+        <v>-0.006705427092820589</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
         <v>51</v>
       </c>
       <c r="M4">
-        <v>1.722307101570335E-101</v>
+        <v>4.204776697270617E-96</v>
       </c>
       <c r="N4">
-        <v>0.0002349890012747522</v>
+        <v>0.0001434001698712555</v>
       </c>
       <c r="O4" t="s">
         <v>54</v>
@@ -875,10 +878,10 @@
         <v>51</v>
       </c>
       <c r="Q4">
-        <v>1.963298150089567E-47</v>
+        <v>1.635080352732912E-18</v>
       </c>
       <c r="R4">
-        <v>-3.442523621864735</v>
+        <v>-3.453470364937592</v>
       </c>
       <c r="S4" t="s">
         <v>55</v>
@@ -898,16 +901,16 @@
         <v>46</v>
       </c>
       <c r="C5">
-        <v>0.5976090290864393</v>
+        <v>0.5535536936751269</v>
       </c>
       <c r="D5">
-        <v>0.5957984960339597</v>
+        <v>0.551927295473579</v>
       </c>
       <c r="E5">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F5">
-        <v>2.567281204183598</v>
+        <v>2.528843615730102</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -916,22 +919,22 @@
         <v>51</v>
       </c>
       <c r="I5">
-        <v>1.095614597131088E-308</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.1813356063920056</v>
+        <v>-0.1745923556248227</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>51</v>
       </c>
       <c r="M5">
-        <v>6.058288625263461E-23</v>
+        <v>3.190129199773823E-25</v>
       </c>
       <c r="N5">
-        <v>0.01017486372989804</v>
+        <v>0.006136958192664032</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
@@ -940,10 +943,10 @@
         <v>51</v>
       </c>
       <c r="Q5">
-        <v>4.558608831814345E-26</v>
+        <v>3.324179684935468E-13</v>
       </c>
       <c r="R5">
-        <v>-13.30246450329206</v>
+        <v>-13.59140931340752</v>
       </c>
       <c r="S5" t="s">
         <v>55</v>
@@ -952,10 +955,10 @@
         <v>51</v>
       </c>
       <c r="U5">
-        <v>5.166765734714298E-14</v>
+        <v>1.260494775067869E-16</v>
       </c>
       <c r="V5">
-        <v>1.924636689693848</v>
+        <v>1.890040981861665</v>
       </c>
       <c r="W5" t="s">
         <v>56</v>
@@ -964,34 +967,34 @@
         <v>51</v>
       </c>
       <c r="Y5">
-        <v>0.0008057928669036327</v>
+        <v>0.0003253596456383551</v>
       </c>
       <c r="Z5">
-        <v>-0.930796885552617</v>
+        <v>-0.6965255341580185</v>
       </c>
       <c r="AA5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC5">
-        <v>0.7955216691602308</v>
+        <v>0.8361888050508319</v>
       </c>
       <c r="AD5">
-        <v>0.2974253892846115</v>
+        <v>0.2664139336700225</v>
       </c>
       <c r="AE5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG5">
-        <v>0.4316024910641845</v>
+        <v>0.4401342345474913</v>
       </c>
       <c r="AH5">
-        <v>-0.005395067678689072</v>
+        <v>-0.004319130063131729</v>
       </c>
       <c r="AI5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5">
-        <v>0.6131247522578159</v>
+        <v>0.6579758872283902</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1002,16 +1005,16 @@
         <v>47</v>
       </c>
       <c r="C6">
-        <v>0.3210077657739525</v>
+        <v>0.3007501259365245</v>
       </c>
       <c r="D6">
-        <v>0.3179526826053313</v>
+        <v>0.2982027675610656</v>
       </c>
       <c r="E6">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F6">
-        <v>-0.05361111238026152</v>
+        <v>-0.05553659432759546</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
@@ -1020,22 +1023,22 @@
         <v>51</v>
       </c>
       <c r="I6">
-        <v>1.45483106371878E-34</v>
+        <v>2.861109336221499E-42</v>
       </c>
       <c r="J6">
-        <v>-0.007370480527641051</v>
+        <v>-0.006337182265083932</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
         <v>51</v>
       </c>
       <c r="M6">
-        <v>1.662650768983388E-07</v>
+        <v>4.745402727028938E-07</v>
       </c>
       <c r="N6">
-        <v>0.0005697668442642861</v>
+        <v>0.0002757707201650022</v>
       </c>
       <c r="O6" t="s">
         <v>54</v>
@@ -1044,10 +1047,10 @@
         <v>51</v>
       </c>
       <c r="Q6">
-        <v>1.346998547516964E-14</v>
+        <v>1.356047319930158E-05</v>
       </c>
       <c r="R6">
-        <v>-2.616101958511456</v>
+        <v>-2.619934662161988</v>
       </c>
       <c r="S6" t="s">
         <v>55</v>
@@ -1056,10 +1059,10 @@
         <v>51</v>
       </c>
       <c r="U6">
-        <v>1.826850878707894E-75</v>
+        <v>1.042965326631388E-91</v>
       </c>
       <c r="V6">
-        <v>0.152402554115701</v>
+        <v>0.1311567803136456</v>
       </c>
       <c r="W6" t="s">
         <v>56</v>
@@ -1068,40 +1071,40 @@
         <v>51</v>
       </c>
       <c r="Y6">
-        <v>0.0006040271222392212</v>
+        <v>0.0009503529807341798</v>
       </c>
       <c r="Z6">
-        <v>-0.6078726742980095</v>
+        <v>-0.6573292395984569</v>
       </c>
       <c r="AA6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC6">
-        <v>0.02878762954655125</v>
+        <v>0.009793168828259887</v>
       </c>
       <c r="AD6">
-        <v>0.07723276611382776</v>
+        <v>0.08525653315024838</v>
       </c>
       <c r="AE6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG6">
-        <v>0.008348060303740305</v>
+        <v>0.001079849374717187</v>
       </c>
       <c r="AH6">
-        <v>0.001293971855322156</v>
+        <v>0.0006502340019893786</v>
       </c>
       <c r="AI6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6">
-        <v>0.1170666019777796</v>
+        <v>0.3773156044919199</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1112,40 +1115,40 @@
         <v>48</v>
       </c>
       <c r="C7">
-        <v>0.6049553546031476</v>
+        <v>0.5956361881695392</v>
       </c>
       <c r="D7">
-        <v>0.6031778758837016</v>
+        <v>0.5941630959588635</v>
       </c>
       <c r="E7">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F7">
-        <v>-0.006071572838217493</v>
+        <v>-0.007368106069991907</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
       </c>
       <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>0.0003693866198825207</v>
+      </c>
+      <c r="J7">
+        <v>-0.01285820802052795</v>
+      </c>
+      <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="I7">
-        <v>0.006359329001445982</v>
-      </c>
-      <c r="J7">
-        <v>-0.01330893776524718</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
       <c r="L7" t="s">
         <v>51</v>
       </c>
       <c r="M7">
-        <v>1.776605897839431E-68</v>
+        <v>2.20572577072123E-80</v>
       </c>
       <c r="N7">
-        <v>0.0002590361458050593</v>
+        <v>0.0001224413548316906</v>
       </c>
       <c r="O7" t="s">
         <v>54</v>
@@ -1154,10 +1157,10 @@
         <v>51</v>
       </c>
       <c r="Q7">
-        <v>1.428234154658986E-11</v>
+        <v>0.0001891780323244322</v>
       </c>
       <c r="R7">
-        <v>-3.373879094620659</v>
+        <v>-3.364091491767812</v>
       </c>
       <c r="S7" t="s">
         <v>55</v>
@@ -1166,10 +1169,10 @@
         <v>51</v>
       </c>
       <c r="U7">
-        <v>1.976262583364986E-322</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.09494968269543617</v>
+        <v>0.08469696504494312</v>
       </c>
       <c r="W7" t="s">
         <v>56</v>
@@ -1178,43 +1181,43 @@
         <v>51</v>
       </c>
       <c r="Y7">
-        <v>3.928542927132261E-05</v>
+        <v>3.80586878419357E-05</v>
       </c>
       <c r="Z7">
-        <v>-0.3518117003335053</v>
+        <v>-0.3337405085330462</v>
       </c>
       <c r="AA7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB7" t="s">
         <v>57</v>
       </c>
       <c r="AC7">
-        <v>0.0148424474521775</v>
+        <v>0.01130967285169237</v>
       </c>
       <c r="AD7">
-        <v>0.0330772862006062</v>
+        <v>0.03219644387274535</v>
       </c>
       <c r="AE7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="s">
         <v>57</v>
       </c>
       <c r="AG7">
-        <v>0.02956140185377016</v>
+        <v>0.01705486428619057</v>
       </c>
       <c r="AH7">
-        <v>0.001994053441914628</v>
+        <v>0.001781712265558748</v>
       </c>
       <c r="AI7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ7" t="s">
         <v>51</v>
       </c>
       <c r="AK7">
-        <v>3.517625792160124E-06</v>
+        <v>3.146504174125529E-06</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1225,16 +1228,16 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>0.3210077657739525</v>
+        <v>0.3007501259365245</v>
       </c>
       <c r="D8">
-        <v>0.3179526826053313</v>
+        <v>0.2982027675610656</v>
       </c>
       <c r="E8">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F8">
-        <v>-0.05361111238026152</v>
+        <v>-0.05553659432759546</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -1243,22 +1246,22 @@
         <v>51</v>
       </c>
       <c r="I8">
-        <v>1.45483106371878E-34</v>
+        <v>2.861109336221499E-42</v>
       </c>
       <c r="J8">
-        <v>-0.007370480527641051</v>
+        <v>-0.006337182265083932</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
         <v>51</v>
       </c>
       <c r="M8">
-        <v>1.662650768983388E-07</v>
+        <v>4.745402727028938E-07</v>
       </c>
       <c r="N8">
-        <v>0.0005697668442642861</v>
+        <v>0.0002757707201650022</v>
       </c>
       <c r="O8" t="s">
         <v>54</v>
@@ -1267,10 +1270,10 @@
         <v>51</v>
       </c>
       <c r="Q8">
-        <v>1.346998547516964E-14</v>
+        <v>1.356047319930158E-05</v>
       </c>
       <c r="R8">
-        <v>-2.616101958511456</v>
+        <v>-2.619934662161988</v>
       </c>
       <c r="S8" t="s">
         <v>55</v>
@@ -1279,10 +1282,10 @@
         <v>51</v>
       </c>
       <c r="U8">
-        <v>1.826850878707894E-75</v>
+        <v>1.042965326631388E-91</v>
       </c>
       <c r="V8">
-        <v>0.152402554115701</v>
+        <v>0.1311567803136456</v>
       </c>
       <c r="W8" t="s">
         <v>56</v>
@@ -1291,40 +1294,40 @@
         <v>51</v>
       </c>
       <c r="Y8">
-        <v>0.0006040271222392212</v>
+        <v>0.0009503529807341798</v>
       </c>
       <c r="Z8">
-        <v>-0.6078726742980095</v>
+        <v>-0.6573292395984569</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC8">
-        <v>0.02878762954655125</v>
+        <v>0.009793168828259887</v>
       </c>
       <c r="AD8">
-        <v>0.07723276611382776</v>
+        <v>0.08525653315024838</v>
       </c>
       <c r="AE8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG8">
-        <v>0.008348060303740305</v>
+        <v>0.001079849374717187</v>
       </c>
       <c r="AH8">
-        <v>0.001293971855322156</v>
+        <v>0.0006502340019893786</v>
       </c>
       <c r="AI8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK8">
-        <v>0.1170666019777796</v>
+        <v>0.3773156044919199</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1335,16 +1338,16 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>0.2147035199372997</v>
+        <v>0.1940768505998445</v>
       </c>
       <c r="D9">
-        <v>0.2111701274510783</v>
+        <v>0.1911408828424668</v>
       </c>
       <c r="E9">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F9">
-        <v>-0.04753953954204398</v>
+        <v>-0.0481684882576035</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -1353,22 +1356,22 @@
         <v>51</v>
       </c>
       <c r="I9">
-        <v>8.799323447970588E-69</v>
+        <v>6.566197855763489E-81</v>
       </c>
       <c r="J9">
-        <v>0.005938457237606129</v>
+        <v>0.006521025755444004</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
         <v>51</v>
       </c>
       <c r="M9">
-        <v>4.142572278114807E-12</v>
+        <v>2.191027306387031E-17</v>
       </c>
       <c r="N9">
-        <v>0.0003107306984592267</v>
+        <v>0.0001533293653333116</v>
       </c>
       <c r="O9" t="s">
         <v>54</v>
@@ -1377,10 +1380,10 @@
         <v>51</v>
       </c>
       <c r="Q9">
-        <v>4.036892201073927E-12</v>
+        <v>6.822919182263543E-05</v>
       </c>
       <c r="R9">
-        <v>0.7577771361092032</v>
+        <v>0.7441568296058234</v>
       </c>
       <c r="S9" t="s">
         <v>55</v>
@@ -1389,49 +1392,55 @@
         <v>51</v>
       </c>
       <c r="U9">
-        <v>8.547981923086256E-20</v>
+        <v>7.015781373686758E-23</v>
       </c>
       <c r="V9">
-        <v>0.05745287142026485</v>
+        <v>0.04645981526870242</v>
       </c>
       <c r="W9" t="s">
         <v>56</v>
       </c>
       <c r="X9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9">
+        <v>0.05384246416709612</v>
+      </c>
+      <c r="Z9">
+        <v>-0.3235887310654114</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9" t="s">
         <v>57</v>
       </c>
-      <c r="Y9">
-        <v>0.03284352412458014</v>
-      </c>
-      <c r="Z9">
-        <v>-0.2560609739645046</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>58</v>
-      </c>
       <c r="AC9">
-        <v>0.12875029029489</v>
+        <v>0.03633832641881048</v>
       </c>
       <c r="AD9">
-        <v>0.04415547991322162</v>
+        <v>0.05306008927750315</v>
       </c>
       <c r="AE9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG9">
+        <v>0.000814822368877035</v>
+      </c>
+      <c r="AH9">
+        <v>-0.001131478263569374</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>57</v>
       </c>
-      <c r="AG9">
-        <v>0.01289566544940651</v>
-      </c>
-      <c r="AH9">
-        <v>-0.0007000815865924753</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>60</v>
-      </c>
       <c r="AK9">
-        <v>0.1620773637861845</v>
+        <v>0.01151926687153584</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1442,40 +1451,40 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>0.6049553546031476</v>
+        <v>0.5956361881695392</v>
       </c>
       <c r="D10">
-        <v>0.6031778758837016</v>
+        <v>0.5941630959588635</v>
       </c>
       <c r="E10">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F10">
-        <v>-0.006071572838217493</v>
+        <v>-0.007368106069991907</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
       </c>
       <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>0.0003693866198825207</v>
+      </c>
+      <c r="J10">
+        <v>-0.01285820802052795</v>
+      </c>
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="I10">
-        <v>0.006359329001445982</v>
-      </c>
-      <c r="J10">
-        <v>-0.01330893776524718</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
       <c r="L10" t="s">
         <v>51</v>
       </c>
       <c r="M10">
-        <v>1.776605897839431E-68</v>
+        <v>2.20572577072123E-80</v>
       </c>
       <c r="N10">
-        <v>0.0002590361458050593</v>
+        <v>0.0001224413548316906</v>
       </c>
       <c r="O10" t="s">
         <v>54</v>
@@ -1484,10 +1493,10 @@
         <v>51</v>
       </c>
       <c r="Q10">
-        <v>1.428234154658986E-11</v>
+        <v>0.0001891780323244322</v>
       </c>
       <c r="R10">
-        <v>-3.373879094620659</v>
+        <v>-3.364091491767812</v>
       </c>
       <c r="S10" t="s">
         <v>55</v>
@@ -1496,10 +1505,10 @@
         <v>51</v>
       </c>
       <c r="U10">
-        <v>1.976262583364986E-322</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.09494968269543617</v>
+        <v>0.08469696504494312</v>
       </c>
       <c r="W10" t="s">
         <v>56</v>
@@ -1508,43 +1517,43 @@
         <v>51</v>
       </c>
       <c r="Y10">
-        <v>3.928542927132261E-05</v>
+        <v>3.80586878419357E-05</v>
       </c>
       <c r="Z10">
-        <v>-0.3518117003335053</v>
+        <v>-0.3337405085330462</v>
       </c>
       <c r="AA10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB10" t="s">
         <v>57</v>
       </c>
       <c r="AC10">
-        <v>0.0148424474521775</v>
+        <v>0.01130967285169237</v>
       </c>
       <c r="AD10">
-        <v>0.0330772862006062</v>
+        <v>0.03219644387274535</v>
       </c>
       <c r="AE10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s">
         <v>57</v>
       </c>
       <c r="AG10">
-        <v>0.02956140185377016</v>
+        <v>0.01705486428619057</v>
       </c>
       <c r="AH10">
-        <v>0.001994053441914628</v>
+        <v>0.001781712265558748</v>
       </c>
       <c r="AI10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ10" t="s">
         <v>51</v>
       </c>
       <c r="AK10">
-        <v>3.517625792160124E-06</v>
+        <v>3.146504174125529E-06</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -1555,16 +1564,16 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>0.1772021242589028</v>
+        <v>0.1576809240877198</v>
       </c>
       <c r="D11">
-        <v>0.1739645834324904</v>
+        <v>0.1549971582564108</v>
       </c>
       <c r="E11">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F11">
-        <v>-0.0424682563223264</v>
+        <v>-0.04335883968354719</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1573,22 +1582,22 @@
         <v>51</v>
       </c>
       <c r="I11">
-        <v>3.700699043234285E-56</v>
+        <v>1.090640820816508E-66</v>
       </c>
       <c r="J11">
-        <v>0.003810330728468005</v>
+        <v>0.004337289900353083</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
         <v>51</v>
       </c>
       <c r="M11">
-        <v>5.792769013199906E-06</v>
+        <v>7.064029540350604E-09</v>
       </c>
       <c r="N11">
-        <v>0.0003296310763475154</v>
+        <v>0.0001532468013140414</v>
       </c>
       <c r="O11" t="s">
         <v>54</v>
@@ -1597,10 +1606,10 @@
         <v>51</v>
       </c>
       <c r="Q11">
-        <v>6.286199376622963E-13</v>
+        <v>9.840570320648042E-05</v>
       </c>
       <c r="R11">
-        <v>0.06768874976843403</v>
+        <v>0.05711032196995026</v>
       </c>
       <c r="S11" t="s">
         <v>56</v>
@@ -1609,40 +1618,43 @@
         <v>57</v>
       </c>
       <c r="U11">
-        <v>0.01395205599790157</v>
+        <v>0.02030254333287326</v>
       </c>
       <c r="V11">
-        <v>-0.3573401747519762</v>
+        <v>-0.3924832491191577</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X11" t="s">
         <v>57</v>
       </c>
       <c r="Y11">
-        <v>0.03794741408251676</v>
+        <v>0.01292391280961785</v>
       </c>
       <c r="Z11">
-        <v>0.05482291769034758</v>
+        <v>0.06001193828719644</v>
       </c>
       <c r="AA11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC11">
-        <v>0.00250910110558321</v>
+        <v>0.0002097291960092337</v>
       </c>
       <c r="AD11">
-        <v>-0.0007618797976859061</v>
+        <v>-0.001188314543011884</v>
       </c>
       <c r="AE11" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>53</v>
       </c>
       <c r="AG11">
-        <v>0.137026815798597</v>
+        <v>0.009426408389393383</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -1653,16 +1665,16 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>0.2147035199372997</v>
+        <v>0.1940768505998444</v>
       </c>
       <c r="D12">
-        <v>0.2111701274510783</v>
+        <v>0.1911408828424667</v>
       </c>
       <c r="E12">
-        <v>1787</v>
+        <v>2205</v>
       </c>
       <c r="F12">
-        <v>-0.04753953954204407</v>
+        <v>-0.04816848825760353</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
@@ -1671,22 +1683,22 @@
         <v>51</v>
       </c>
       <c r="I12">
-        <v>8.799323447972345E-69</v>
+        <v>6.566197855764425E-81</v>
       </c>
       <c r="J12">
-        <v>0.005938457237606124</v>
+        <v>0.006521025755443902</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
         <v>51</v>
       </c>
       <c r="M12">
-        <v>4.142572278114777E-12</v>
+        <v>2.191027306388956E-17</v>
       </c>
       <c r="N12">
-        <v>0.0003107306984592273</v>
+        <v>0.0001533293653333113</v>
       </c>
       <c r="O12" t="s">
         <v>54</v>
@@ -1695,52 +1707,58 @@
         <v>51</v>
       </c>
       <c r="Q12">
-        <v>4.036892201073707E-12</v>
+        <v>6.822919182263724E-05</v>
       </c>
       <c r="R12">
-        <v>0.05745287142026485</v>
+        <v>0.04645981526870251</v>
       </c>
       <c r="S12" t="s">
         <v>56</v>
       </c>
       <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12">
+        <v>0.05384246416709549</v>
+      </c>
+      <c r="V12">
+        <v>-0.3235887310654104</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" t="s">
         <v>57</v>
       </c>
-      <c r="U12">
-        <v>0.0328435241245802</v>
-      </c>
-      <c r="V12">
-        <v>-0.2560609739645043</v>
-      </c>
-      <c r="W12" t="s">
-        <v>58</v>
-      </c>
       <c r="Y12">
-        <v>0.1287502902948907</v>
+        <v>0.03633832641881094</v>
       </c>
       <c r="Z12">
-        <v>0.04415547991322162</v>
+        <v>0.05306008927750308</v>
       </c>
       <c r="AA12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12">
+        <v>0.000814822368877039</v>
+      </c>
+      <c r="AD12">
+        <v>-0.001131478263569323</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF12" t="s">
         <v>57</v>
       </c>
-      <c r="AC12">
-        <v>0.01289566544940665</v>
-      </c>
-      <c r="AD12">
-        <v>-0.0007000815865924622</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>60</v>
-      </c>
       <c r="AG12">
-        <v>0.1620773637861929</v>
+        <v>0.01151926687153947</v>
       </c>
       <c r="AH12">
-        <v>0.7577771361092038</v>
+        <v>0.7441568296058236</v>
       </c>
       <c r="AI12" t="s">
         <v>55</v>
@@ -1749,7 +1767,7 @@
         <v>51</v>
       </c>
       <c r="AK12">
-        <v>8.547981923086256E-20</v>
+        <v>7.015781373686406E-23</v>
       </c>
     </row>
   </sheetData>
@@ -1767,36 +1785,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>-13.97698953761943</v>
+        <v>-13.52923906978785</v>
       </c>
       <c r="C2">
-        <v>1.425353894267631</v>
+        <v>1.339119376358017</v>
       </c>
       <c r="D2">
-        <v>-9.805978426712771</v>
+        <v>-10.10308663189022</v>
       </c>
       <c r="E2">
-        <v>3.821256767324627E-22</v>
+        <v>1.730268466181314E-23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1804,33 +1822,33 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>2.567281204183598</v>
+        <v>2.528843615730102</v>
       </c>
       <c r="C3">
-        <v>0.05532308107317038</v>
+        <v>0.052855248166553</v>
       </c>
       <c r="D3">
-        <v>46.40524631641734</v>
+        <v>47.84470234178871</v>
       </c>
       <c r="E3">
-        <v>1.095614597131088E-308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>-0.1813356063920056</v>
+        <v>-0.1745923556248227</v>
       </c>
       <c r="C4">
-        <v>0.01813306710261784</v>
+        <v>0.01661889427913231</v>
       </c>
       <c r="D4">
-        <v>-10.00027217490561</v>
+        <v>-10.50565414836603</v>
       </c>
       <c r="E4">
-        <v>6.058288625263461E-23</v>
+        <v>3.190129199773823E-25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1838,16 +1856,16 @@
         <v>54</v>
       </c>
       <c r="B5">
-        <v>0.01017486372989804</v>
+        <v>0.006136958192664032</v>
       </c>
       <c r="C5">
-        <v>0.0009483089519546409</v>
+        <v>0.000837745240080038</v>
       </c>
       <c r="D5">
-        <v>10.72948189398166</v>
+        <v>7.325566173408169</v>
       </c>
       <c r="E5">
-        <v>4.558608831814345E-26</v>
+        <v>3.324179684935468E-13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1855,16 +1873,16 @@
         <v>55</v>
       </c>
       <c r="B6">
-        <v>-13.30246450329206</v>
+        <v>-13.59140931340752</v>
       </c>
       <c r="C6">
-        <v>1.752839823628648</v>
+        <v>1.629040933047153</v>
       </c>
       <c r="D6">
-        <v>-7.589093038606298</v>
+        <v>-8.343196931205725</v>
       </c>
       <c r="E6">
-        <v>5.166765734714298E-14</v>
+        <v>1.260494775067869E-16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1872,67 +1890,67 @@
         <v>56</v>
       </c>
       <c r="B7">
-        <v>1.924636689693848</v>
+        <v>1.890040981861665</v>
       </c>
       <c r="C7">
-        <v>0.5733943375550855</v>
+        <v>0.5250219723051124</v>
       </c>
       <c r="D7">
-        <v>3.356567310902245</v>
+        <v>3.599927396492432</v>
       </c>
       <c r="E7">
-        <v>0.0008057928669036327</v>
+        <v>0.0003253596456383551</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>-0.930796885552617</v>
+        <v>-0.6965255341580185</v>
       </c>
       <c r="C8">
-        <v>3.591230131116732</v>
+        <v>3.368186464331267</v>
       </c>
       <c r="D8">
-        <v>-0.2591860870980094</v>
+        <v>-0.2067954198896496</v>
       </c>
       <c r="E8">
-        <v>0.7955216691602308</v>
+        <v>0.8361888050508319</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>0.2974253892846115</v>
+        <v>0.2664139336700225</v>
       </c>
       <c r="C9">
-        <v>0.3781000620056044</v>
+        <v>0.3450480175101059</v>
       </c>
       <c r="D9">
-        <v>0.7866314216055402</v>
+        <v>0.7721068377453283</v>
       </c>
       <c r="E9">
-        <v>0.4316024910641845</v>
+        <v>0.4401342345474913</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>-0.005395067678689072</v>
+        <v>-0.004319130063131729</v>
       </c>
       <c r="C10">
-        <v>0.01066835796645879</v>
+        <v>0.009754799119891869</v>
       </c>
       <c r="D10">
-        <v>-0.5057074102360563</v>
+        <v>-0.4427697597917943</v>
       </c>
       <c r="E10">
-        <v>0.6131247522578159</v>
+        <v>0.6579758872283902</v>
       </c>
     </row>
   </sheetData>
@@ -1950,36 +1968,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>2.650347470735377</v>
+        <v>2.663343127208527</v>
       </c>
       <c r="C2">
-        <v>0.1102586913952973</v>
+        <v>0.1010867348722129</v>
       </c>
       <c r="D2">
-        <v>24.03753787747582</v>
+        <v>26.34710806096711</v>
       </c>
       <c r="E2">
-        <v>8.691499440649033E-111</v>
+        <v>3.618988437423759E-133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1987,33 +2005,33 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>-0.05361111238026152</v>
+        <v>-0.05553659432759546</v>
       </c>
       <c r="C3">
-        <v>0.004279534049484537</v>
+        <v>0.003989909004638962</v>
       </c>
       <c r="D3">
-        <v>-12.52732464804641</v>
+        <v>-13.91926338746686</v>
       </c>
       <c r="E3">
-        <v>1.45483106371878E-34</v>
+        <v>2.861109336221499E-42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>-0.007370480527641051</v>
+        <v>-0.006337182265083932</v>
       </c>
       <c r="C4">
-        <v>0.001402689014818349</v>
+        <v>0.001254518297265564</v>
       </c>
       <c r="D4">
-        <v>-5.254536429513242</v>
+        <v>-5.051486517890489</v>
       </c>
       <c r="E4">
-        <v>1.662650768983388E-07</v>
+        <v>4.745402727028938E-07</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2021,16 +2039,16 @@
         <v>54</v>
       </c>
       <c r="B5">
-        <v>0.0005697668442642861</v>
+        <v>0.0002757707201650022</v>
       </c>
       <c r="C5">
-        <v>7.33567323185298E-05</v>
+        <v>6.323926938070714E-05</v>
       </c>
       <c r="D5">
-        <v>7.767069582519611</v>
+        <v>4.360751205154397</v>
       </c>
       <c r="E5">
-        <v>1.346998547516964E-14</v>
+        <v>1.356047319930158E-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2038,16 +2056,16 @@
         <v>55</v>
       </c>
       <c r="B6">
-        <v>-2.616101958511456</v>
+        <v>-2.619934662161988</v>
       </c>
       <c r="C6">
-        <v>0.1355914667621276</v>
+        <v>0.1229721799282619</v>
       </c>
       <c r="D6">
-        <v>-19.29400146619084</v>
+        <v>-21.30510058202087</v>
       </c>
       <c r="E6">
-        <v>1.826850878707894E-75</v>
+        <v>1.042965326631388E-91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2055,67 +2073,67 @@
         <v>56</v>
       </c>
       <c r="B7">
-        <v>0.152402554115701</v>
+        <v>0.1311567803136456</v>
       </c>
       <c r="C7">
-        <v>0.04435509634944481</v>
+        <v>0.03963258082399973</v>
       </c>
       <c r="D7">
-        <v>3.435964898261541</v>
+        <v>3.309317172557759</v>
       </c>
       <c r="E7">
-        <v>0.0006040271222392212</v>
+        <v>0.0009503529807341798</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>-0.6078726742980095</v>
+        <v>-0.6573292395984569</v>
       </c>
       <c r="C8">
-        <v>0.2778007176665032</v>
+        <v>0.2542558775051308</v>
       </c>
       <c r="D8">
-        <v>-2.188160921267864</v>
+        <v>-2.585305976201837</v>
       </c>
       <c r="E8">
-        <v>0.02878762954655125</v>
+        <v>0.009793168828259887</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>0.07723276611382776</v>
+        <v>0.08525653315024838</v>
       </c>
       <c r="C9">
-        <v>0.0292480472540043</v>
+        <v>0.02604680215970646</v>
       </c>
       <c r="D9">
-        <v>2.640612737086369</v>
+        <v>3.273205387267748</v>
       </c>
       <c r="E9">
-        <v>0.008348060303740305</v>
+        <v>0.001079849374717187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>0.001293971855322156</v>
+        <v>0.0006502340019893786</v>
       </c>
       <c r="C10">
-        <v>0.0008252541305348816</v>
+        <v>0.0007363651140991139</v>
       </c>
       <c r="D10">
-        <v>1.567967741625817</v>
+        <v>0.8830320577922677</v>
       </c>
       <c r="E10">
-        <v>0.1170666019777796</v>
+        <v>0.3773156044919199</v>
       </c>
     </row>
   </sheetData>
@@ -2133,33 +2151,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>2.822293117560656</v>
+        <v>2.822396070827566</v>
       </c>
       <c r="C2">
-        <v>0.0572602199997627</v>
+        <v>0.05233993451133575</v>
       </c>
       <c r="D2">
-        <v>49.28889755527227</v>
+        <v>53.92433324914256</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2170,33 +2188,33 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>-0.006071572838217493</v>
+        <v>-0.007368106069991907</v>
       </c>
       <c r="C3">
-        <v>0.002222473875473652</v>
+        <v>0.002065865281661169</v>
       </c>
       <c r="D3">
-        <v>-2.731898406195449</v>
+        <v>-3.5665956223763</v>
       </c>
       <c r="E3">
-        <v>0.006359329001445982</v>
+        <v>0.0003693866198825207</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>-0.01330893776524718</v>
+        <v>-0.01285820802052795</v>
       </c>
       <c r="C4">
-        <v>0.0007284530640019432</v>
+        <v>0.0006495551132911437</v>
       </c>
       <c r="D4">
-        <v>-18.2701376697232</v>
+        <v>-19.79540728326872</v>
       </c>
       <c r="E4">
-        <v>1.776605897839431E-68</v>
+        <v>2.20572577072123E-80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2204,16 +2222,16 @@
         <v>54</v>
       </c>
       <c r="B5">
-        <v>0.0002590361458050593</v>
+        <v>0.0001224413548316906</v>
       </c>
       <c r="C5">
-        <v>3.809606823613972E-05</v>
+        <v>3.274355653207253E-05</v>
       </c>
       <c r="D5">
-        <v>6.799550657023589</v>
+        <v>3.739403039854833</v>
       </c>
       <c r="E5">
-        <v>1.428234154658986E-11</v>
+        <v>0.0001891780323244322</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2221,16 +2239,16 @@
         <v>55</v>
       </c>
       <c r="B6">
-        <v>-3.373879094620659</v>
+        <v>-3.364091491767812</v>
       </c>
       <c r="C6">
-        <v>0.07041619230773022</v>
+        <v>0.06367161677838179</v>
       </c>
       <c r="D6">
-        <v>-47.91339866654901</v>
+        <v>-52.83502543177151</v>
       </c>
       <c r="E6">
-        <v>1.976262583364986E-322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2238,67 +2256,67 @@
         <v>56</v>
       </c>
       <c r="B7">
-        <v>0.09494968269543617</v>
+        <v>0.08469696504494312</v>
       </c>
       <c r="C7">
-        <v>0.02303476073350355</v>
+        <v>0.02052066166214234</v>
       </c>
       <c r="D7">
-        <v>4.122017319560604</v>
+        <v>4.127399322663986</v>
       </c>
       <c r="E7">
-        <v>3.928542927132261E-05</v>
+        <v>3.80586878419357E-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>-0.3518117003335053</v>
+        <v>-0.3337405085330462</v>
       </c>
       <c r="C8">
-        <v>0.1442691728731544</v>
+        <v>0.131646709081696</v>
       </c>
       <c r="D8">
-        <v>-2.43857848026084</v>
+        <v>-2.535122304697619</v>
       </c>
       <c r="E8">
-        <v>0.0148424474521775</v>
+        <v>0.01130967285169237</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>0.0330772862006062</v>
+        <v>0.03219644387274535</v>
       </c>
       <c r="C9">
-        <v>0.01518927532273589</v>
+        <v>0.01348631866477962</v>
       </c>
       <c r="D9">
-        <v>2.177673753210257</v>
+        <v>2.387341176864551</v>
       </c>
       <c r="E9">
-        <v>0.02956140185377016</v>
+        <v>0.01705486428619057</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10">
-        <v>0.001994053441914628</v>
+        <v>0.001781712265558748</v>
       </c>
       <c r="C10">
-        <v>0.0004285760376089105</v>
+        <v>0.0003812696284740152</v>
       </c>
       <c r="D10">
-        <v>4.652741326929403</v>
+        <v>4.673103054890136</v>
       </c>
       <c r="E10">
-        <v>3.517625792160124E-06</v>
+        <v>3.146504174125529E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2316,36 +2334,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>-0.1719456468252796</v>
+        <v>-0.1590529436190387</v>
       </c>
       <c r="C2">
-        <v>0.06687275323979933</v>
+        <v>0.06142653623917144</v>
       </c>
       <c r="D2">
-        <v>-2.57123624338748</v>
+        <v>-2.58931975261876</v>
       </c>
       <c r="E2">
-        <v>0.01021427230030648</v>
+        <v>0.009680092634888877</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2353,33 +2371,33 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>-0.04753953954204407</v>
+        <v>-0.04816848825760353</v>
       </c>
       <c r="C3">
-        <v>0.002595570660697186</v>
+        <v>0.002424514852262998</v>
       </c>
       <c r="D3">
-        <v>-18.31564066503767</v>
+        <v>-19.8672687909682</v>
       </c>
       <c r="E3">
-        <v>8.799323447972345E-69</v>
+        <v>6.566197855764425E-81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>0.005938457237606124</v>
+        <v>0.006521025755443902</v>
       </c>
       <c r="C4">
-        <v>0.0008507417889064955</v>
+        <v>0.0007623227097709868</v>
       </c>
       <c r="D4">
-        <v>6.980328596810961</v>
+        <v>8.554153866677952</v>
       </c>
       <c r="E4">
-        <v>4.142572278114777E-12</v>
+        <v>2.191027306388956E-17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2387,16 +2405,16 @@
         <v>54</v>
       </c>
       <c r="B5">
-        <v>0.0003107306984592273</v>
+        <v>0.0001533293653333113</v>
       </c>
       <c r="C5">
-        <v>4.449142826507629E-05</v>
+        <v>3.842808136263723E-05</v>
       </c>
       <c r="D5">
-        <v>6.984057616849682</v>
+        <v>3.990034368002303</v>
       </c>
       <c r="E5">
-        <v>4.036892201073707E-12</v>
+        <v>6.822919182263724E-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2404,67 +2422,67 @@
         <v>56</v>
       </c>
       <c r="B6">
-        <v>0.05745287142026485</v>
+        <v>0.04645981526870251</v>
       </c>
       <c r="C6">
-        <v>0.02690171065489768</v>
+        <v>0.02408320107791427</v>
       </c>
       <c r="D6">
-        <v>2.135658663394518</v>
+        <v>1.929137871597515</v>
       </c>
       <c r="E6">
-        <v>0.0328435241245802</v>
+        <v>0.05384246416709549</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>-0.2560609739645043</v>
+        <v>-0.3235887310654104</v>
       </c>
       <c r="C7">
-        <v>0.1684882942764871</v>
+        <v>0.1545015564439248</v>
       </c>
       <c r="D7">
-        <v>-1.519755274774825</v>
+        <v>-2.0944043446116</v>
       </c>
       <c r="E7">
-        <v>0.1287502902948907</v>
+        <v>0.03633832641881094</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0.04415547991322162</v>
+        <v>0.05306008927750308</v>
       </c>
       <c r="C8">
-        <v>0.01773916796954152</v>
+        <v>0.01582764384268922</v>
       </c>
       <c r="D8">
-        <v>2.489151689021571</v>
+        <v>3.352368160723525</v>
       </c>
       <c r="E8">
-        <v>0.01289566544940665</v>
+        <v>0.000814822368877039</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>-0.0007000815865924622</v>
+        <v>-0.001131478263569323</v>
       </c>
       <c r="C9">
-        <v>0.0005005230438798597</v>
+        <v>0.000447460870347139</v>
       </c>
       <c r="D9">
-        <v>-1.398700010224709</v>
+        <v>-2.52866415490482</v>
       </c>
       <c r="E9">
-        <v>0.1620773637861929</v>
+        <v>0.01151926687153947</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2472,16 +2490,16 @@
         <v>55</v>
       </c>
       <c r="B10">
-        <v>0.7577771361092038</v>
+        <v>0.7441568296058236</v>
       </c>
       <c r="C10">
-        <v>0.08223727838105781</v>
+        <v>0.07472548278784799</v>
       </c>
       <c r="D10">
-        <v>9.214521091006182</v>
+        <v>9.958541609139525</v>
       </c>
       <c r="E10">
-        <v>8.547981923086256E-20</v>
+        <v>7.015781373686406E-23</v>
       </c>
     </row>
   </sheetData>
